--- a/sms_ner_pkg/sms_ner_pkg/data/dictionary/subway_station_names.xlsx
+++ b/sms_ner_pkg/sms_ner_pkg/data/dictionary/subway_station_names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghio1\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghio1\PycharmProjects\senior-project-2021\sms_ner_pkg\sms_ner_pkg\data\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B69C14-05CD-40D5-867F-1AECD3F2969B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0692B-2DCE-4467-8F3F-B219C676BE41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지하철역_명칭" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="909">
   <si>
     <t>청량리(서울시립대입구)</t>
   </si>
@@ -2751,6 +2751,26 @@
   </si>
   <si>
     <t>ㅎ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄲ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄸ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅃ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅉ</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3705,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A888"/>
   <sheetViews>
-    <sheetView topLeftCell="A832" workbookViewId="0">
-      <selection activeCell="A842" sqref="A842"/>
+    <sheetView topLeftCell="A774" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8163,10 +8183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C7298A-24D5-4DD9-A912-68FAB9062F4C}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8291,8 +8311,49 @@
         <v>842</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>904</v>
+      </c>
+      <c r="B16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>905</v>
+      </c>
+      <c r="B17">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>906</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>907</v>
+      </c>
+      <c r="B19">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>908</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sms_ner_pkg/sms_ner_pkg/data/dictionary/subway_station_names.xlsx
+++ b/sms_ner_pkg/sms_ner_pkg/data/dictionary/subway_station_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghio1\PycharmProjects\senior-project-2021\sms_ner_pkg\sms_ner_pkg\data\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0692B-2DCE-4467-8F3F-B219C676BE41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4EEB02-0573-4565-B258-CCDB7FAC7273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8183,10 +8183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C7298A-24D5-4DD9-A912-68FAB9062F4C}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8209,145 +8209,153 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B4">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="B6">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B7">
-        <v>330</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B9">
-        <v>565</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="B10">
-        <v>722</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B11">
-        <v>786</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="B12">
-        <v>817</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B13">
-        <v>819</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B14">
-        <v>828</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B15">
-        <v>842</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B16">
-        <v>143</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B17">
-        <v>272</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B19">
-        <v>562</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B20">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
         <v>-1</v>
       </c>
     </row>
